--- a/fft.xlsx
+++ b/fft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\source\repositories\FFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB80F9EF-A4AA-45FE-8BDD-8D25F0E09755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76F410E-A7AA-45AE-98E5-AE3B7088CDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{0BC2A31D-3CE6-4E72-9358-3FE453EA4162}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{0BC2A31D-3CE6-4E72-9358-3FE453EA4162}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="206">
   <si>
     <t xml:space="preserve">Function: </t>
   </si>
@@ -635,9 +635,6 @@
   </si>
   <si>
     <t>X7</t>
-  </si>
-  <si>
-    <t>X8</t>
   </si>
   <si>
     <t>Mag</t>
@@ -5493,7 +5490,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O2096"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -60354,7 +60351,7 @@
   <dimension ref="A2:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -61142,8 +61139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F174F1-0E60-489E-9B3E-0B8FDCB1E386}">
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -61204,7 +61201,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -61248,7 +61245,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -61292,7 +61289,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -61301,7 +61298,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <f t="shared" si="5"/>
+        <f>C4</f>
         <v>1</v>
       </c>
       <c r="J4" s="6">
@@ -61325,13 +61322,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
+        <v>203</v>
+      </c>
+      <c r="U4" t="s">
+        <v>202</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="U4" t="s">
-        <v>203</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
@@ -61345,7 +61342,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -61400,7 +61397,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -61455,7 +61452,7 @@
         <v>-0.70699999999999996</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -61510,7 +61507,7 @@
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -61549,7 +61546,7 @@
         <v>5</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T8">
         <f t="shared" si="6"/>
@@ -61574,7 +61571,7 @@
         <v>-0.70699999999999996</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -61727,7 +61724,7 @@
         <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" t="s">
         <v>184</v>
@@ -61961,7 +61958,7 @@
         <v>5</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
@@ -62268,7 +62265,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -62312,7 +62309,7 @@
         <v>5</v>
       </c>
       <c r="R24" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
@@ -62608,7 +62605,7 @@
         <v>5</v>
       </c>
       <c r="R32" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="6:18" x14ac:dyDescent="0.35">
@@ -62904,7 +62901,7 @@
         <v>5</v>
       </c>
       <c r="R40" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="6:18" x14ac:dyDescent="0.35">
@@ -63200,7 +63197,7 @@
         <v>5</v>
       </c>
       <c r="R48" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="6:18" x14ac:dyDescent="0.35">
@@ -63496,7 +63493,7 @@
         <v>5</v>
       </c>
       <c r="R56" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="6:18" x14ac:dyDescent="0.35">
@@ -63792,7 +63789,7 @@
         <v>5</v>
       </c>
       <c r="R64" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="6:18" x14ac:dyDescent="0.35">
@@ -63844,301 +63841,15 @@
         <v>3.9996979771955559</v>
       </c>
     </row>
-    <row r="66" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F66" t="s">
-        <v>199</v>
-      </c>
-      <c r="G66">
-        <v>8</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L66" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N66" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F67" t="s">
-        <v>199</v>
-      </c>
-      <c r="G67">
-        <v>8</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="J67" s="6">
-        <f t="shared" si="21"/>
-        <v>-6.2831853071795862</v>
-      </c>
-      <c r="K67" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L67" s="6">
-        <f t="shared" si="22"/>
-        <v>2.45029690981724E-16</v>
-      </c>
-      <c r="M67" s="6">
-        <f t="shared" si="23"/>
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="N67" s="6">
-        <f t="shared" si="24"/>
-        <v>1.7323599152407886E-16</v>
-      </c>
-    </row>
-    <row r="68" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F68" t="s">
-        <v>199</v>
-      </c>
-      <c r="G68">
-        <v>8</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68" s="6">
-        <f t="shared" si="21"/>
-        <v>-12.566370614359172</v>
-      </c>
-      <c r="K68" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L68" s="6">
-        <f t="shared" si="22"/>
-        <v>4.90059381963448E-16</v>
-      </c>
-      <c r="M68" s="6">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="N68" s="6">
-        <f t="shared" si="24"/>
-        <v>4.90059381963448E-16</v>
-      </c>
-    </row>
-    <row r="69" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F69" t="s">
-        <v>199</v>
-      </c>
-      <c r="G69">
-        <v>8</v>
-      </c>
-      <c r="H69">
-        <v>3</v>
-      </c>
-      <c r="I69">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="J69" s="6">
-        <f t="shared" si="21"/>
-        <v>-18.849555921538759</v>
-      </c>
-      <c r="K69" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L69" s="6">
-        <f t="shared" si="22"/>
-        <v>7.3508907294517201E-16</v>
-      </c>
-      <c r="M69" s="6">
-        <f t="shared" si="23"/>
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="N69" s="6">
-        <f t="shared" si="24"/>
-        <v>5.1970797457223661E-16</v>
-      </c>
-    </row>
-    <row r="70" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F70" t="s">
-        <v>199</v>
-      </c>
-      <c r="G70">
-        <v>8</v>
-      </c>
-      <c r="H70">
-        <v>4</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" s="6">
-        <f t="shared" si="21"/>
-        <v>-25.132741228718345</v>
-      </c>
-      <c r="K70" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L70" s="6">
-        <f t="shared" si="22"/>
-        <v>9.8011876392689601E-16</v>
-      </c>
-      <c r="M70" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F71" t="s">
-        <v>199</v>
-      </c>
-      <c r="G71">
-        <v>8</v>
-      </c>
-      <c r="H71">
-        <v>5</v>
-      </c>
-      <c r="I71">
-        <v>-0.70699999999999996</v>
-      </c>
-      <c r="J71" s="6">
-        <f t="shared" si="21"/>
-        <v>-31.415926535897931</v>
-      </c>
-      <c r="K71" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L71" s="6">
-        <f t="shared" si="22"/>
-        <v>1.22514845490862E-15</v>
-      </c>
-      <c r="M71" s="6">
-        <f t="shared" si="23"/>
-        <v>-0.70699999999999996</v>
-      </c>
-      <c r="N71" s="6">
-        <f t="shared" si="24"/>
-        <v>-8.6617995762039429E-16</v>
-      </c>
-    </row>
     <row r="72" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F72" t="s">
-        <v>199</v>
-      </c>
-      <c r="G72">
-        <v>8</v>
-      </c>
-      <c r="H72">
-        <v>6</v>
-      </c>
-      <c r="I72">
-        <v>-1</v>
-      </c>
-      <c r="J72" s="6">
-        <f t="shared" si="21"/>
-        <v>-37.699111843077517</v>
-      </c>
-      <c r="K72" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L72" s="6">
-        <f t="shared" si="22"/>
-        <v>1.470178145890344E-15</v>
-      </c>
-      <c r="M72" s="6">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="N72" s="6">
-        <f t="shared" si="24"/>
-        <v>-1.470178145890344E-15</v>
-      </c>
-      <c r="P72" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="14" t="s">
-        <v>200</v>
-      </c>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
     </row>
     <row r="73" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F73" t="s">
-        <v>199</v>
-      </c>
-      <c r="G73">
-        <v>8</v>
-      </c>
-      <c r="H73">
-        <v>7</v>
-      </c>
-      <c r="I73">
-        <v>-0.70699999999999996</v>
-      </c>
-      <c r="J73" s="6">
-        <f t="shared" si="21"/>
-        <v>-43.982297150257104</v>
-      </c>
-      <c r="K73" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L73" s="6">
-        <f t="shared" si="22"/>
-        <v>1.715207836872068E-15</v>
-      </c>
-      <c r="M73" s="6">
-        <f t="shared" si="23"/>
-        <v>-0.70699999999999996</v>
-      </c>
-      <c r="N73" s="6">
-        <f t="shared" si="24"/>
-        <v>-1.2126519406685521E-15</v>
-      </c>
-      <c r="O73" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="P73" s="15">
-        <f>SUM(M66:M73)</f>
-        <v>0</v>
-      </c>
-      <c r="Q73" s="15">
-        <f>SUM(N66:N73)</f>
-        <v>-2.3660066961195267E-15</v>
-      </c>
-      <c r="R73" s="6">
-        <f t="shared" si="14"/>
-        <v>2.3660066961195267E-15</v>
-      </c>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
